--- a/samples/通常成绩单.xlsx
+++ b/samples/通常成绩单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>4考试成绩单-高一X班</t>
   </si>
@@ -38,31 +38,55 @@
     <t>总分</t>
   </si>
   <si>
-    <t>原始分</t>
-  </si>
-  <si>
-    <t>校方向</t>
-  </si>
-  <si>
-    <t>班次</t>
+    <t>总分原始</t>
+  </si>
+  <si>
+    <t>年级排名</t>
+  </si>
+  <si>
+    <t>班级排名</t>
   </si>
   <si>
     <t>语文</t>
   </si>
   <si>
+    <t>语文名次</t>
+  </si>
+  <si>
     <t>数学</t>
   </si>
   <si>
+    <t>数学名次</t>
+  </si>
+  <si>
     <t>英语</t>
   </si>
   <si>
+    <t>英语名次</t>
+  </si>
+  <si>
     <t>物理</t>
   </si>
   <si>
+    <t>物理名次</t>
+  </si>
+  <si>
     <t>化学</t>
   </si>
   <si>
+    <t>化学原始</t>
+  </si>
+  <si>
+    <t>化学名次</t>
+  </si>
+  <si>
     <t>生物</t>
+  </si>
+  <si>
+    <t>生物原始</t>
+  </si>
+  <si>
+    <t>生物名次</t>
   </si>
   <si>
     <t>A</t>
@@ -1172,7 +1196,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{8A566CA2-1AF3-4433-A821-C36C6C4E774A}">
+    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{6C53CE15-63C4-43F5-A5C4-1F7DB0A62934}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1463,7 +1487,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1472,11 +1496,11 @@
     <col min="2" max="2" width="8.48333333333333" customWidth="1"/>
     <col min="3" max="3" width="8.70833333333333" customWidth="1"/>
     <col min="4" max="4" width="8.48333333333333" customWidth="1"/>
-    <col min="5" max="5" width="7.775" customWidth="1"/>
+    <col min="5" max="5" width="9.74166666666667" customWidth="1"/>
     <col min="6" max="6" width="8.70833333333333" customWidth="1"/>
-    <col min="7" max="7" width="7.775" customWidth="1"/>
+    <col min="7" max="7" width="10.2916666666667" customWidth="1"/>
     <col min="8" max="8" width="8.48333333333333" customWidth="1"/>
-    <col min="9" max="9" width="7.775" customWidth="1"/>
+    <col min="9" max="9" width="10.8416666666667" customWidth="1"/>
     <col min="10" max="10" width="9.81666666666667" customWidth="1"/>
     <col min="11" max="19" width="8.70833333333333" customWidth="1"/>
   </cols>
@@ -1524,48 +1548,48 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>640.5</v>
@@ -1624,7 +1648,7 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:19">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4">
         <v>601.5</v>
@@ -1683,7 +1707,7 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>598</v>
